--- a/raw/nutrient_SC.xlsx
+++ b/raw/nutrient_SC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="222">
   <si>
     <t>保健品名</t>
   </si>
@@ -352,13 +352,480 @@
   </si>
   <si>
     <t>含专利柑橘幼果萃取，可促进新陈代谢。</t>
+  </si>
+  <si>
+    <t>黃精芝麻膠囊</t>
+  </si>
+  <si>
+    <t>含黃精萃取物，提振精神。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金針菇膠囊</t>
+  </si>
+  <si>
+    <t>含金針菇萃取物，有助於維持健康，使排便順暢。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麗菜錠</t>
+  </si>
+  <si>
+    <t>高麗菜萃取含維生素U，幫助維持消化道機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒酵母錠</t>
+  </si>
+  <si>
+    <t>含維生素B群，可促進新陳代謝，調節生理機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐藻糖膠巴西磨菇錠</t>
+  </si>
+  <si>
+    <t>可調節生理機能、增強體力、滋補強身。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅酒多酚錠</t>
+  </si>
+  <si>
+    <t>可幫助調整體質，養顏美容、青春美麗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠茶錠</t>
+  </si>
+  <si>
+    <r>
+      <t>可調整體質，維持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>消化道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機能，促進新陳代謝。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青棗五味子錠</t>
+  </si>
+  <si>
+    <t>促進新陳代謝，調節生理機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水母蛋白錠</t>
+  </si>
+  <si>
+    <t>可幫助養顏美容，青春美麗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄紅素錠</t>
+  </si>
+  <si>
+    <t>可幫助調節生理機能，營養補給。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞茸錠</t>
+  </si>
+  <si>
+    <t>可幫助調整體質，營養補給。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-10紅藜膠囊</t>
+  </si>
+  <si>
+    <t>能幫助調節生理機能、養顏美容、青春美麗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵磷脂膠囊</t>
+  </si>
+  <si>
+    <t>有助於促進新陳代謝、調節生理機能。</t>
+  </si>
+  <si>
+    <t>綠藻錠</t>
+  </si>
+  <si>
+    <t>幫助維持消化道機能，調整體質及維持健康。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白藜蘆醇錠</t>
+  </si>
+  <si>
+    <t>能幫助調整體質，養顏美容、維持青春美麗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔鬼爪錠</t>
+  </si>
+  <si>
+    <r>
+      <t>自南非植物鉤麻的魔鬼爪，能幫助調節生理機能，維持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健康。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑醋栗錠</t>
+  </si>
+  <si>
+    <t>黑醋栗含花青素及檞皮素，能幫助調節生理機能。其亦富含維生素C，具抗氧化作用。</t>
+  </si>
+  <si>
+    <t>葉黃素膠囊</t>
+  </si>
+  <si>
+    <t>萃取自金盞花之葉黃素，有助於調節生理機能。含維生素A，有助於維持在暗處中的視覺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉雄蕊錠</t>
+  </si>
+  <si>
+    <t>香蕉雄蕊萃取有助於調節生理機能，滋補強身。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜籽錠</t>
+  </si>
+  <si>
+    <t>芹菜籽萃取能幫助調整體質，促進水份新陳代謝。</t>
+  </si>
+  <si>
+    <t>益生菌膠囊</t>
+  </si>
+  <si>
+    <t>含專利Babyguard母乳益生菌與TS6有益菌，可改變細菌叢生態，幫助維持消化道機能，促使排便順暢。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑豆皮錠</t>
+  </si>
+  <si>
+    <t>黑豆種皮萃取含有矢車菊素、維生素C與維生素E，具抗氧化作用，有助於減少自由基的產生，調節生理機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬蟲夏草錠</t>
+  </si>
+  <si>
+    <t>含冬蟲夏草菌絲體，能幫助調整調整生理機能，增強體力、滋補強身。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂王乳錠</t>
+  </si>
+  <si>
+    <t>蜂王乳中含有B群和癸烯酸，可幫助調節生理機能，營養補給、養顏美容。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺五加錠</t>
+  </si>
+  <si>
+    <t>含刺五加及紅景天萃取，能幫助增強體力，使精神旺盛。</t>
+  </si>
+  <si>
+    <t>天山雪蓮錠</t>
+  </si>
+  <si>
+    <t>天山雪蓮萃取含多酚與類黃酮，有助於調整體質，養顏美容、青春美麗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPCE膠囊</t>
+  </si>
+  <si>
+    <t>含花青素及維生素C及維生素E，具抗氧化作用，能幫助養顏美容。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>納豆錠</t>
+  </si>
+  <si>
+    <r>
+      <t>納豆萃取中含有納豆激酶，能幫助調整生理機能，維持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健康。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海藻鈣膠囊</t>
+  </si>
+  <si>
+    <t>來自愛爾蘭海藻萃取，全素可食用。含鈣質及維生素D，有助於維持骨骼與牙齒的正常發育及健康。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山苦瓜錠</t>
+  </si>
+  <si>
+    <t>山苦瓜分離出的三萜類化合物，有助於調節生理機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉舒眠錠</t>
+  </si>
+  <si>
+    <t>專利成分Happy Banana，可幫助入睡。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀杏錠</t>
+  </si>
+  <si>
+    <t>銀杏含銀杏苦內酯，有助於調整體質，健康維持。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓錠</t>
+  </si>
+  <si>
+    <r>
+      <t>蔓越莓含原花青素、類黃酮素及多酚類化合物，有助於維持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>健康。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨酵素錠</t>
+  </si>
+  <si>
+    <t>鳳梨酵素有助於調整體質。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉酸錠</t>
+  </si>
+  <si>
+    <t>有助於紅血球的形成。有助於胎兒正常發育生長。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>薑黃錠</t>
+  </si>
+  <si>
+    <t>含薑黃素，可幫助調整體質，促進新陳代謝，增強體力。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑蒜精錠</t>
+  </si>
+  <si>
+    <t>可幫助調節生理機能，健康維持。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅麴膠囊</t>
+  </si>
+  <si>
+    <t>含有monacolin-K，有助於調節生理機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>B群錠</t>
+  </si>
+  <si>
+    <t>含維生素B1、B2、菸鹼酸、B6、葉酸、B12、泛酸及生物素，有助於維持正常能量代謝，維持皮膚、心臟及神經系統的正常功能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茯苓錠</t>
+  </si>
+  <si>
+    <t>能調整體質、幫助入睡。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸棗仁錠</t>
+  </si>
+  <si>
+    <t>蕎麥種皮錠</t>
+  </si>
+  <si>
+    <r>
+      <t>蕎麥殼萃取物Soba，具有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調節生理機能，健康維持。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉桂錠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有水溶性Type A polymers能幫助調節生理機能。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃蓮錠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是民間常見的中藥食材，可降火氣、清熱燥濕。</t>
+  </si>
+  <si>
+    <t>花生膜錠</t>
+  </si>
+  <si>
+    <t>含SugarLock花生膜萃取、薑黃素與白腎豆萃取物，促進新陳代謝。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚油膠囊</t>
+  </si>
+  <si>
+    <t>含omega-3脂肪酸，有助於健康維持、營養補給。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃精馬卡紅蔘錠</t>
+  </si>
+  <si>
+    <t>中藥材黃精的萃取物，有助於滋補強身，增強體力。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂香蕉雙層錠</t>
+  </si>
+  <si>
+    <r>
+      <t>專利成分Happy Banana加上茯苓與酸棗仁，可幫助入睡、調節生理機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤黃果錠</t>
+  </si>
+  <si>
+    <t>藤黃果萃取物（HCA 羥基檸檬酸）能幫助調整體質，促進新陳代謝。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特濃胺基酸</t>
+  </si>
+  <si>
+    <t>含專利柑橘幼果，可促進新陳代謝。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金針菇錠</t>
+  </si>
+  <si>
+    <t>金針菇萃取有助於調節生理機能，使排便順暢。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭樂幼果錠</t>
+  </si>
+  <si>
+    <t>含番石榴萃取物，有助於調節生理機能。</t>
+  </si>
+  <si>
+    <t>黑苦瓜錠</t>
+  </si>
+  <si>
+    <t>含專利黑苦瓜萃取物，可幫助入睡、調節生理機能。</t>
+  </si>
+  <si>
+    <t>青梨幼果錠</t>
+  </si>
+  <si>
+    <t>含專利青梨幼果萃取物，豐富的綠原酸與總多酚，有助於健康維持。</t>
+  </si>
+  <si>
+    <t>柑橘幼果錠</t>
+  </si>
+  <si>
+    <t>含專利柑橘幼果萃取，可促進新陳代謝。</t>
+  </si>
+  <si>
+    <t>保健品名簡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效用簡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,6 +862,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -742,459 +1221,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" thickBot="1">
+    <row r="52" spans="1:4" ht="16" thickBot="1">
       <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="31" thickBot="1">
+    <row r="53" spans="1:4" ht="31" thickBot="1">
       <c r="A53" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" thickBot="1">
+    <row r="54" spans="1:4" ht="16" thickBot="1">
       <c r="A54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31" thickBot="1">
+    <row r="55" spans="1:4" ht="31" thickBot="1">
       <c r="A55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31" thickBot="1">
+    <row r="56" spans="1:4" ht="31" thickBot="1">
       <c r="A56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>110</v>
       </c>
     </row>
